--- a/src/main/resources/poi/report_sales_tracking.xlsx
+++ b/src/main/resources/poi/report_sales_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF12D1F3-F0C0-40C2-8363-23C51397C942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF72220-BF26-4E95-86AD-9CC98E1ED725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>&lt;% Page Language="C#" EnableEventValidation = "false" AutoEventWireup="true"
- CodeFile="ExportGridView.aspx.cs" Inherits="ExportGridView" %&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,21 +222,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -263,24 +249,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -589,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -603,139 +585,125 @@
     <col min="19" max="19" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+    <row r="2" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
